--- a/src/main/resources/accountPeriodExcelTemplates/details.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/details.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,6 +32,10 @@
     <t>UNIQUE CODE</t>
   </si>
   <si>
+    <t>酒店名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>账期</t>
   </si>
   <si>
@@ -143,10 +151,6 @@
   </si>
   <si>
     <t>本月应结算总额（计算）</t>
-  </si>
-  <si>
-    <t>酒店名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -157,14 +161,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,8 +170,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -260,44 +264,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -330,9 +334,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -371,166 +375,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -542,33 +522,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,127 +532,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -741,23 +697,7 @@
       <c r="AP2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>